--- a/test/get_abs_axle_location.xlsx
+++ b/test/get_abs_axle_location.xlsx
@@ -47,10 +47,10 @@
     <t>abs axle location</t>
   </si>
   <si>
-    <t>rtl</t>
-  </si>
-  <si>
     <t>total spacing</t>
+  </si>
+  <si>
+    <t>ltr</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D5" sqref="D5:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -474,7 +474,7 @@
       </c>
       <c r="D5">
         <f>IF($C$3="ltr",$C$2-C5, $C$2+C5)</f>
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D22" si="0">IF($C$3="ltr",$C$2-C6, $C$2+C6)</f>
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>-29</v>
       </c>
     </row>
   </sheetData>

--- a/test/get_abs_axle_location.xlsx
+++ b/test/get_abs_axle_location.xlsx
@@ -50,7 +50,7 @@
     <t>total spacing</t>
   </si>
   <si>
-    <t>ltr</t>
+    <t>rtl</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D22"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D22" si="0">IF($C$3="ltr",$C$2-C6, $C$2+C6)</f>
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/test/get_abs_axle_location.xlsx
+++ b/test/get_abs_axle_location.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="655" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -211,7 +211,7 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5:D22"/>
     </sheetView>
   </sheetViews>
@@ -233,7 +233,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -274,7 +274,7 @@
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C5, $C$2+C5)</f>
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -290,7 +290,7 @@
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C6, $C$2+C6)</f>
-        <v>67</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,7 +306,7 @@
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C7, $C$2+C7)</f>
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,7 +322,7 @@
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C8, $C$2+C8)</f>
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,7 +338,7 @@
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C9, $C$2+C9)</f>
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,7 +354,7 @@
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C10, $C$2+C10)</f>
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,7 +370,7 @@
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C11, $C$2+C11)</f>
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,7 +386,7 @@
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C12, $C$2+C12)</f>
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -402,7 +402,7 @@
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C13, $C$2+C13)</f>
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,7 +418,7 @@
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C14, $C$2+C14)</f>
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,7 +434,7 @@
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C15, $C$2+C15)</f>
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,7 +450,7 @@
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C16, $C$2+C16)</f>
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,7 +466,7 @@
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C17, $C$2+C17)</f>
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,7 +482,7 @@
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C18, $C$2+C18)</f>
-        <v>-4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,7 +498,7 @@
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C19, $C$2+C19)</f>
-        <v>-13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +514,7 @@
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C20, $C$2+C20)</f>
-        <v>-18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,7 +530,7 @@
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C21, $C$2+C21)</f>
-        <v>-24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,7 +546,7 @@
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C22, $C$2+C22)</f>
-        <v>-29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/test/get_abs_axle_location.xlsx
+++ b/test/get_abs_axle_location.xlsx
@@ -233,7 +233,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -274,7 +274,7 @@
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C5, $C$2+C5)</f>
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -290,7 +290,7 @@
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C6, $C$2+C6)</f>
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,7 +306,7 @@
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C7, $C$2+C7)</f>
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,7 +322,7 @@
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C8, $C$2+C8)</f>
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,7 +338,7 @@
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C9, $C$2+C9)</f>
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,7 +354,7 @@
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C10, $C$2+C10)</f>
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,7 +370,7 @@
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C11, $C$2+C11)</f>
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,7 +386,7 @@
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C12, $C$2+C12)</f>
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -402,7 +402,7 @@
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C13, $C$2+C13)</f>
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,7 +418,7 @@
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C14, $C$2+C14)</f>
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,7 +434,7 @@
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C15, $C$2+C15)</f>
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,7 +450,7 @@
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C16, $C$2+C16)</f>
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,7 +466,7 @@
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C17, $C$2+C17)</f>
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,7 +482,7 @@
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C18, $C$2+C18)</f>
-        <v>46</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,7 +498,7 @@
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C19, $C$2+C19)</f>
-        <v>37</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +514,7 @@
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C20, $C$2+C20)</f>
-        <v>32</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,7 +530,7 @@
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C21, $C$2+C21)</f>
-        <v>26</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,7 +546,7 @@
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">IF($C$3="ltr",$C$2-C22, $C$2+C22)</f>
-        <v>21</v>
+        <v>-29</v>
       </c>
     </row>
   </sheetData>
